--- a/mfa/S_cerevisiae/run_files/Nlim__D_0_28/data_expmt1.xlsx
+++ b/mfa/S_cerevisiae/run_files/Nlim__D_0_28/data_expmt1.xlsx
@@ -788,7 +788,7 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E30"/>
     </sheetView>
   </sheetViews>
@@ -942,7 +942,7 @@
       <c r="C6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -1600,8 +1600,8 @@
   </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="1" sqref="E2:E30 A35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="E2:E30 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1642,8 +1642,7 @@
         <v>0.28</v>
       </c>
       <c r="C3" s="2" t="n">
-        <f aca="false">MIN(0.1*B3,0.01)</f>
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,8 +1653,8 @@
         <v>22.56</v>
       </c>
       <c r="C4" s="2" t="n">
-        <f aca="false">MIN(0.2*B4)</f>
-        <v>4.512</v>
+        <f aca="false">MIN(0.1*B4, 2.25622071359102 )</f>
+        <v>2.256</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,7 +2018,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E30 A2"/>
     </sheetView>
   </sheetViews>
